--- a/price.xlsx
+++ b/price.xlsx
@@ -40,49 +40,49 @@
     <t>عملکرد هفته به درصد</t>
   </si>
   <si>
-    <t>1,788.12</t>
-  </si>
-  <si>
-    <t>-%</t>
-  </si>
-  <si>
-    <t>57.64</t>
-  </si>
-  <si>
-    <t>3.1228%</t>
-  </si>
-  <si>
-    <t>125,850,000</t>
-  </si>
-  <si>
-    <t>0.11%</t>
-  </si>
-  <si>
-    <t>1,450,000</t>
-  </si>
-  <si>
-    <t>1.1656%</t>
-  </si>
-  <si>
-    <t>12,536,000</t>
-  </si>
-  <si>
-    <t>0.26%</t>
-  </si>
-  <si>
-    <t>175,000</t>
-  </si>
-  <si>
-    <t>1.4157%</t>
-  </si>
-  <si>
-    <t>292,730</t>
-  </si>
-  <si>
-    <t>1,810</t>
-  </si>
-  <si>
-    <t>0.6145%</t>
+    <t>1,789.62</t>
+  </si>
+  <si>
+    <t>0.22%</t>
+  </si>
+  <si>
+    <t>9.4400</t>
+  </si>
+  <si>
+    <t>0.5303%</t>
+  </si>
+  <si>
+    <t>131,720,000</t>
+  </si>
+  <si>
+    <t>0.71%</t>
+  </si>
+  <si>
+    <t>5,510,000</t>
+  </si>
+  <si>
+    <t>4.3657%</t>
+  </si>
+  <si>
+    <t>13,159,000</t>
+  </si>
+  <si>
+    <t>0.08%</t>
+  </si>
+  <si>
+    <t>544,000</t>
+  </si>
+  <si>
+    <t>4.3123%</t>
+  </si>
+  <si>
+    <t>310,280</t>
+  </si>
+  <si>
+    <t>15,890</t>
+  </si>
+  <si>
+    <t>5.3976%</t>
   </si>
 </sst>
 </file>
@@ -99,14 +99,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF008000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF008000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -457,13 +457,13 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +477,10 @@
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -494,10 +494,10 @@
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -508,13 +508,13 @@
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
